--- a/src/test/resources/ed/biordm/sbol/toolkit/transform/generate_test.xlsx
+++ b/src/test/resources/ed/biordm/sbol/toolkit/transform/generate_test.xlsx
@@ -30,9 +30,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>variable</t>
-  </si>
-  <si>
     <t>AACC</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>codA</t>
   </si>
   <si>
-    <t>{variable} promotor fused with codA</t>
-  </si>
-  <si>
     <t>ACT</t>
   </si>
   <si>
@@ -72,7 +66,13 @@
     <t>TTA</t>
   </si>
   <si>
-    <t>{variable}-codA</t>
+    <t>{key}-codA</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>{key} promotor fused with codA</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,76 +409,76 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ed/biordm/sbol/toolkit/transform/generate_test.xlsx
+++ b/src/test/resources/ed/biordm/sbol/toolkit/transform/generate_test.xlsx
@@ -33,15 +33,6 @@
     <t>AACC</t>
   </si>
   <si>
-    <t>const1</t>
-  </si>
-  <si>
-    <t>const2</t>
-  </si>
-  <si>
-    <t>const3</t>
-  </si>
-  <si>
     <t>cry</t>
   </si>
   <si>
@@ -73,6 +64,15 @@
   </si>
   <si>
     <t>{key} promotor fused with codA</t>
+  </si>
+  <si>
+    <t>c1_{key}</t>
+  </si>
+  <si>
+    <t>c2_{key}</t>
+  </si>
+  <si>
+    <t>c3_{key}</t>
   </si>
 </sst>
 </file>
@@ -409,33 +409,33 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -443,19 +443,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -463,19 +463,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
